--- a/Contribution Summary.xlsx
+++ b/Contribution Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://diehlgrp-my.sharepoint.com/personal/gabriel_diehlgrp_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{0E904D0F-6A61-461D-8D7A-516CDDA2D402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5697FA0-4EDB-40BA-B6E4-8E92DA62E1FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC6D0355-482B-4C6A-B53D-07A7E3E5BEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{248FD177-A6C4-4547-84A7-5795F7ADDF04}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{248FD177-A6C4-4547-84A7-5795F7ADDF04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -65,16 +65,61 @@
     <t>ER Diagram</t>
   </si>
   <si>
-    <t>Create db and empty table in MySQL workbench with appropriate data types, constraints</t>
-  </si>
-  <si>
-    <t>Remove duplicates, handle NULLs, clean data in Python</t>
-  </si>
-  <si>
-    <t>Load clean data into MySQL workbench</t>
-  </si>
-  <si>
-    <t>Reverse engineer ER diagram</t>
+    <t>Owen Randolph</t>
+  </si>
+  <si>
+    <t>Marcos Fernandez</t>
+  </si>
+  <si>
+    <t>Loaded data from jupyter Notebook to MySQL Workbench</t>
+  </si>
+  <si>
+    <t>Check for dulplicate values</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>Create 2NF tables for normalization - SQL script</t>
+  </si>
+  <si>
+    <t>Add data to new tables - SQL script</t>
+  </si>
+  <si>
+    <t>Make a connection into MySQL Workbench - Python</t>
+  </si>
+  <si>
+    <t>Check for 1NF Normalization - Python via ChatGPT</t>
+  </si>
+  <si>
+    <t>Reverse engineer ER diagram - MySQL Workbench</t>
+  </si>
+  <si>
+    <t>Remove duplicates, handle NULLs, clean data - Python</t>
+  </si>
+  <si>
+    <t>Create db and empty table in MySQL workbench with appropriate data types, constraints - SQL</t>
+  </si>
+  <si>
+    <t>Load CSV into Jupyter Notebook - Python</t>
+  </si>
+  <si>
+    <t>Create 3NF tables for normalization - SQL script</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After data transfer from csv in Jupyter directory to MySQL workbench - Python</t>
+  </si>
+  <si>
+    <t>Add foreign keys for 3NF - SQL Script</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Create structured draft of report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refine Report Draft </t>
   </si>
 </sst>
 </file>
@@ -472,14 +517,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5930CB-B72E-40EA-8130-98E5544941A0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -519,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1.5</v>
@@ -533,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>0.1</v>
@@ -547,13 +594,154 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>0.1</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>